--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H2">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I2">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J2">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>4.226529229787666</v>
+        <v>6.151791494216889</v>
       </c>
       <c r="R2">
-        <v>38.03876306808899</v>
+        <v>55.366123447952</v>
       </c>
       <c r="S2">
-        <v>0.0001185226691920099</v>
+        <v>0.0002084820823320591</v>
       </c>
       <c r="T2">
-        <v>0.0001247137591876483</v>
+        <v>0.0002306252826429051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H3">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I3">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J3">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>16.24933090675477</v>
+        <v>30.89604004959955</v>
       </c>
       <c r="R3">
-        <v>146.243978160793</v>
+        <v>278.064360446396</v>
       </c>
       <c r="S3">
-        <v>0.0004556727203208184</v>
+        <v>0.001047056092751266</v>
       </c>
       <c r="T3">
-        <v>0.0004794750092778219</v>
+        <v>0.001158265519187994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H4">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I4">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J4">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>27.46185293659122</v>
+        <v>64.29883227628</v>
       </c>
       <c r="R4">
-        <v>247.156676429321</v>
+        <v>578.68949048652</v>
       </c>
       <c r="S4">
-        <v>0.0007701004616420803</v>
+        <v>0.002179065148271108</v>
       </c>
       <c r="T4">
-        <v>0.0008103270385173014</v>
+        <v>0.002410506985041032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H5">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I5">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J5">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>13.65705761189533</v>
+        <v>31.41874953853</v>
       </c>
       <c r="R5">
-        <v>81.94234567137201</v>
+        <v>188.51249723118</v>
       </c>
       <c r="S5">
-        <v>0.0003829787595133256</v>
+        <v>0.001064770536228324</v>
       </c>
       <c r="T5">
-        <v>0.0002686558957513423</v>
+        <v>0.0007852409605041425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2004523333333333</v>
+        <v>0.3811346666666666</v>
       </c>
       <c r="H6">
-        <v>0.6013569999999999</v>
+        <v>1.143404</v>
       </c>
       <c r="I6">
-        <v>0.00350521822469015</v>
+        <v>0.006090539251284117</v>
       </c>
       <c r="J6">
-        <v>0.003553987077041381</v>
+        <v>0.006344804244995461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>63.40163198150899</v>
+        <v>46.95136202146177</v>
       </c>
       <c r="R6">
-        <v>570.6146878335809</v>
+        <v>422.5622581931559</v>
       </c>
       <c r="S6">
-        <v>0.001777943614021916</v>
+        <v>0.00159116539170136</v>
       </c>
       <c r="T6">
-        <v>0.001870815374307266</v>
+        <v>0.001760165497619387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>163.896535</v>
       </c>
       <c r="I7">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J7">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>1151.917240239022</v>
+        <v>881.8032033687313</v>
       </c>
       <c r="R7">
-        <v>10367.25516215119</v>
+        <v>7936.228830318581</v>
       </c>
       <c r="S7">
-        <v>0.0323027000592355</v>
+        <v>0.02988400504441931</v>
       </c>
       <c r="T7">
-        <v>0.03399004750535868</v>
+        <v>0.03305803085223402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>163.896535</v>
       </c>
       <c r="I8">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J8">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>4428.66555421408</v>
@@ -948,10 +948,10 @@
         <v>39857.98998792672</v>
       </c>
       <c r="S8">
-        <v>0.1241910877475546</v>
+        <v>0.1500859412356186</v>
       </c>
       <c r="T8">
-        <v>0.1306782703780414</v>
+        <v>0.1660267982313236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>163.896535</v>
       </c>
       <c r="I9">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J9">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>7484.576617528151</v>
+        <v>9216.651170214951</v>
       </c>
       <c r="R9">
-        <v>67361.18955775336</v>
+        <v>82949.86053193455</v>
       </c>
       <c r="S9">
-        <v>0.2098866351685228</v>
+        <v>0.3123491148718177</v>
       </c>
       <c r="T9">
-        <v>0.2208501669221399</v>
+        <v>0.3455241913107896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>163.896535</v>
       </c>
       <c r="I10">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J10">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>3722.155759199644</v>
+        <v>4503.591192087763</v>
       </c>
       <c r="R10">
-        <v>22332.93455519786</v>
+        <v>27021.54715252658</v>
       </c>
       <c r="S10">
-        <v>0.1043787494996023</v>
+        <v>0.1526251451437237</v>
       </c>
       <c r="T10">
-        <v>0.07322068325631235</v>
+        <v>0.1125571299092017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>163.896535</v>
       </c>
       <c r="I11">
-        <v>0.9553279024698591</v>
+        <v>0.8730232529945331</v>
       </c>
       <c r="J11">
-        <v>0.9686195843099198</v>
+        <v>0.9094698208227777</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>17279.7652561033</v>
+        <v>6730.049526543708</v>
       </c>
       <c r="R11">
-        <v>155517.8873049296</v>
+        <v>60570.44573889337</v>
       </c>
       <c r="S11">
-        <v>0.4845687299949438</v>
+        <v>0.2280790466989538</v>
       </c>
       <c r="T11">
-        <v>0.5098804162480673</v>
+        <v>0.2523036705192288</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H12">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I12">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J12">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>49.6382842751565</v>
+        <v>0.6693076232653334</v>
       </c>
       <c r="R12">
-        <v>297.829705650939</v>
+        <v>6.023768609388001</v>
       </c>
       <c r="S12">
-        <v>0.001391984208920019</v>
+        <v>2.268260345791207E-05</v>
       </c>
       <c r="T12">
-        <v>0.0009764634597342974</v>
+        <v>2.509175740688334E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H13">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I13">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J13">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>190.8395430335405</v>
+        <v>3.361452538394333</v>
       </c>
       <c r="R13">
-        <v>1145.037258201243</v>
+        <v>30.253072845549</v>
       </c>
       <c r="S13">
-        <v>0.005351627966584534</v>
+        <v>0.000113918461886044</v>
       </c>
       <c r="T13">
-        <v>0.003754115259336404</v>
+        <v>0.0001260179156732928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H14">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I14">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J14">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>322.5245085688285</v>
+        <v>6.995636742569999</v>
       </c>
       <c r="R14">
-        <v>1935.147051412971</v>
+        <v>62.96073068313</v>
       </c>
       <c r="S14">
-        <v>0.009044410568843805</v>
+        <v>0.0002370797054322655</v>
       </c>
       <c r="T14">
-        <v>0.006344566539416906</v>
+        <v>0.0002622603029603618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.3542035</v>
+        <v>0.041467</v>
       </c>
       <c r="H15">
-        <v>4.708407</v>
+        <v>0.124401</v>
       </c>
       <c r="I15">
-        <v>0.04116687930545086</v>
+        <v>0.0006626434518324191</v>
       </c>
       <c r="J15">
-        <v>0.02782642861303881</v>
+        <v>0.0006903071817849863</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>160.394704790793</v>
+        <v>3.4183227112575</v>
       </c>
       <c r="R15">
-        <v>641.5788191631722</v>
+        <v>20.509936267545</v>
       </c>
       <c r="S15">
-        <v>0.004497876981918875</v>
+        <v>0.0001158457723406072</v>
       </c>
       <c r="T15">
-        <v>0.002103478133865392</v>
+        <v>8.543328580945653E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.041467</v>
+      </c>
+      <c r="H16">
+        <v>0.124401</v>
+      </c>
+      <c r="I16">
+        <v>0.0006626434518324191</v>
+      </c>
+      <c r="J16">
+        <v>0.0006903071817849863</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>123.1883796666667</v>
+      </c>
+      <c r="N16">
+        <v>369.565139</v>
+      </c>
+      <c r="O16">
+        <v>0.2612519722889696</v>
+      </c>
+      <c r="P16">
+        <v>0.2774184087724594</v>
+      </c>
+      <c r="Q16">
+        <v>5.108252539637666</v>
+      </c>
+      <c r="R16">
+        <v>45.974272856739</v>
+      </c>
+      <c r="S16">
+        <v>0.0001731169087155903</v>
+      </c>
+      <c r="T16">
+        <v>0.0001915039199349918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.3542035</v>
-      </c>
-      <c r="H16">
-        <v>4.708407</v>
-      </c>
-      <c r="I16">
-        <v>0.04116687930545086</v>
-      </c>
-      <c r="J16">
-        <v>0.02782642861303881</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>316.292811</v>
-      </c>
-      <c r="N16">
-        <v>948.878433</v>
-      </c>
-      <c r="O16">
-        <v>0.5072276531881493</v>
-      </c>
-      <c r="P16">
-        <v>0.5263990368430604</v>
-      </c>
-      <c r="Q16">
-        <v>744.6176426810384</v>
-      </c>
-      <c r="R16">
-        <v>4467.705856086232</v>
-      </c>
-      <c r="S16">
-        <v>0.02088097957918363</v>
-      </c>
-      <c r="T16">
-        <v>0.01464780522068581</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.523368</v>
+      </c>
+      <c r="H17">
+        <v>15.046736</v>
+      </c>
+      <c r="I17">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J17">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.14072933333334</v>
+      </c>
+      <c r="N17">
+        <v>48.42218800000001</v>
+      </c>
+      <c r="O17">
+        <v>0.03423048004954622</v>
+      </c>
+      <c r="P17">
+        <v>0.03634868370049611</v>
+      </c>
+      <c r="Q17">
+        <v>121.4326465630614</v>
+      </c>
+      <c r="R17">
+        <v>728.5958793783681</v>
+      </c>
+      <c r="S17">
+        <v>0.004115310319336943</v>
+      </c>
+      <c r="T17">
+        <v>0.003034935808212299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.523368</v>
+      </c>
+      <c r="H18">
+        <v>15.046736</v>
+      </c>
+      <c r="I18">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J18">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N18">
+        <v>243.189949</v>
+      </c>
+      <c r="O18">
+        <v>0.1719151703242873</v>
+      </c>
+      <c r="P18">
+        <v>0.1825533892714798</v>
+      </c>
+      <c r="Q18">
+        <v>609.8691600760773</v>
+      </c>
+      <c r="R18">
+        <v>3659.214960456464</v>
+      </c>
+      <c r="S18">
+        <v>0.02066825453403148</v>
+      </c>
+      <c r="T18">
+        <v>0.01524230760529497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.523368</v>
+      </c>
+      <c r="H19">
+        <v>15.046736</v>
+      </c>
+      <c r="I19">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J19">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>168.70371</v>
+      </c>
+      <c r="N19">
+        <v>506.11113</v>
+      </c>
+      <c r="O19">
+        <v>0.3577786889414888</v>
+      </c>
+      <c r="P19">
+        <v>0.3799182594076638</v>
+      </c>
+      <c r="Q19">
+        <v>1269.22009329528</v>
+      </c>
+      <c r="R19">
+        <v>7615.32055977168</v>
+      </c>
+      <c r="S19">
+        <v>0.0430134292159677</v>
+      </c>
+      <c r="T19">
+        <v>0.03172130080887278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.523368</v>
+      </c>
+      <c r="H20">
+        <v>15.046736</v>
+      </c>
+      <c r="I20">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J20">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>82.43477250000001</v>
+      </c>
+      <c r="N20">
+        <v>164.869545</v>
+      </c>
+      <c r="O20">
+        <v>0.1748236883957081</v>
+      </c>
+      <c r="P20">
+        <v>0.1237612588479007</v>
+      </c>
+      <c r="Q20">
+        <v>620.1871295137801</v>
+      </c>
+      <c r="R20">
+        <v>2480.74851805512</v>
+      </c>
+      <c r="S20">
+        <v>0.02101792694341548</v>
+      </c>
+      <c r="T20">
+        <v>0.01033345469238542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.523368</v>
+      </c>
+      <c r="H21">
+        <v>15.046736</v>
+      </c>
+      <c r="I21">
+        <v>0.1202235643023504</v>
+      </c>
+      <c r="J21">
+        <v>0.0834950677504417</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>123.1883796666667</v>
+      </c>
+      <c r="N21">
+        <v>369.565139</v>
+      </c>
+      <c r="O21">
+        <v>0.2612519722889696</v>
+      </c>
+      <c r="P21">
+        <v>0.2774184087724594</v>
+      </c>
+      <c r="Q21">
+        <v>926.7915135560506</v>
+      </c>
+      <c r="R21">
+        <v>5560.749081336304</v>
+      </c>
+      <c r="S21">
+        <v>0.0314086432895988</v>
+      </c>
+      <c r="T21">
+        <v>0.02316306883567623</v>
       </c>
     </row>
   </sheetData>
